--- a/Data/CropMeasurements.xlsx
+++ b/Data/CropMeasurements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maree/projects/challenge4/data_prep/4th_autonomous_greenhouse_challenge_pretrial_dataset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\BEP-Autonomous Irrigation\BEP-Autonomous-Irrigation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E97168-DFDB-B04F-A351-220FA8278EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE0C395-54C5-4440-8B79-44B5B9A6A5A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="-26880" windowWidth="29120" windowHeight="18880" activeTab="12" xr2:uid="{75D4F6D5-84B1-4AE8-ADE6-8177D1157F80}"/>
+    <workbookView xWindow="38280" yWindow="2925" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{75D4F6D5-84B1-4AE8-ADE6-8177D1157F80}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId14"/>
+    <pivotCache cacheId="0" r:id="rId14"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2152" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2152" uniqueCount="196">
   <si>
     <t>Week</t>
   </si>
@@ -638,6 +638,9 @@
   <si>
     <t>For # of leaves see destructive measurements of similar plants week 38.</t>
   </si>
+  <si>
+    <t>date</t>
+  </si>
 </sst>
 </file>
 
@@ -1048,7 +1051,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -6090,7 +6093,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{526BF673-37B0-4B49-9739-61470FCAE95D}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{526BF673-37B0-4B49-9739-61470FCAE95D}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:E38" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
@@ -6332,7 +6335,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Thema">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -6634,21 +6637,23 @@
       <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="21" width="3" customWidth="1"/>
-    <col min="22" max="22" width="4.5" customWidth="1"/>
-    <col min="23" max="23" width="9.33203125" style="34"/>
+    <col min="22" max="22" width="4.42578125" customWidth="1"/>
+    <col min="23" max="23" width="9.28515625" style="34"/>
+    <col min="26" max="26" width="10.7109375" customWidth="1"/>
+    <col min="27" max="27" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="16"/>
       <c r="R1" s="16"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>188</v>
       </c>
@@ -6656,12 +6661,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -6670,12 +6675,12 @@
       </c>
       <c r="AA5" s="62"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -6687,7 +6692,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="X8" s="23" t="s">
         <v>51</v>
       </c>
@@ -6698,7 +6703,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>27</v>
       </c>
@@ -6724,7 +6729,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>26</v>
       </c>
@@ -6757,7 +6762,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>25</v>
       </c>
@@ -6790,7 +6795,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>24</v>
       </c>
@@ -6816,7 +6821,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>23</v>
       </c>
@@ -6839,7 +6844,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>22</v>
       </c>
@@ -6866,7 +6871,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>21</v>
       </c>
@@ -6893,7 +6898,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>20</v>
       </c>
@@ -6920,7 +6925,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>19</v>
       </c>
@@ -6947,7 +6952,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>18</v>
       </c>
@@ -6966,7 +6971,7 @@
       <c r="K18" s="26"/>
       <c r="X18" s="23"/>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>17</v>
       </c>
@@ -6989,7 +6994,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>16</v>
       </c>
@@ -7012,7 +7017,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>15</v>
       </c>
@@ -7035,7 +7040,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>14</v>
       </c>
@@ -7058,7 +7063,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="2:27" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>13</v>
       </c>
@@ -7081,7 +7086,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>12</v>
       </c>
@@ -7104,7 +7109,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>11</v>
       </c>
@@ -7127,7 +7132,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>10</v>
       </c>
@@ -7154,7 +7159,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>9</v>
       </c>
@@ -7181,7 +7186,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>8</v>
       </c>
@@ -7208,7 +7213,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>7</v>
       </c>
@@ -7226,7 +7231,7 @@
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>6</v>
       </c>
@@ -7244,7 +7249,7 @@
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>5</v>
       </c>
@@ -7258,7 +7263,7 @@
       <c r="J31" s="26"/>
       <c r="K31" s="26"/>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>4</v>
       </c>
@@ -7272,7 +7277,7 @@
       <c r="J32" s="26"/>
       <c r="K32" s="26"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>3</v>
       </c>
@@ -7286,7 +7291,7 @@
       <c r="J33" s="26"/>
       <c r="K33" s="26"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>2</v>
       </c>
@@ -7300,7 +7305,7 @@
       <c r="J34" s="26"/>
       <c r="K34" s="26"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>1</v>
       </c>
@@ -7314,7 +7319,7 @@
       <c r="J35" s="26"/>
       <c r="K35" s="26"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C36">
         <v>1</v>
       </c>
@@ -7343,7 +7348,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>27</v>
       </c>
@@ -7357,7 +7362,7 @@
       <c r="J39" s="26"/>
       <c r="K39" s="26"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>26</v>
       </c>
@@ -7371,7 +7376,7 @@
       <c r="J40" s="26"/>
       <c r="K40" s="26"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>25</v>
       </c>
@@ -7385,7 +7390,7 @@
       <c r="J41" s="26"/>
       <c r="K41" s="26"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>24</v>
       </c>
@@ -7399,7 +7404,7 @@
       <c r="J42" s="26"/>
       <c r="K42" s="26"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>23</v>
       </c>
@@ -7413,7 +7418,7 @@
       <c r="J43" s="26"/>
       <c r="K43" s="26"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>22</v>
       </c>
@@ -7431,7 +7436,7 @@
       <c r="J44" s="26"/>
       <c r="K44" s="26"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>21</v>
       </c>
@@ -7449,7 +7454,7 @@
       <c r="J45" s="26"/>
       <c r="K45" s="26"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>20</v>
       </c>
@@ -7467,7 +7472,7 @@
       <c r="J46" s="26"/>
       <c r="K46" s="26"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>19</v>
       </c>
@@ -7485,7 +7490,7 @@
       <c r="J47" s="26"/>
       <c r="K47" s="26"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>18</v>
       </c>
@@ -7503,7 +7508,7 @@
       <c r="J48" s="26"/>
       <c r="K48" s="26"/>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>17</v>
       </c>
@@ -7517,7 +7522,7 @@
       <c r="J49" s="26"/>
       <c r="K49" s="26"/>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>16</v>
       </c>
@@ -7531,7 +7536,7 @@
       <c r="J50" s="26"/>
       <c r="K50" s="26"/>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>15</v>
       </c>
@@ -7545,7 +7550,7 @@
       <c r="J51" s="26"/>
       <c r="K51" s="26"/>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>14</v>
       </c>
@@ -7559,7 +7564,7 @@
       <c r="J52" s="26"/>
       <c r="K52" s="26"/>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>13</v>
       </c>
@@ -7573,7 +7578,7 @@
       <c r="J53" s="26"/>
       <c r="K53" s="26"/>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>12</v>
       </c>
@@ -7587,7 +7592,7 @@
       <c r="J54" s="26"/>
       <c r="K54" s="26"/>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>11</v>
       </c>
@@ -7601,7 +7606,7 @@
       <c r="J55" s="26"/>
       <c r="K55" s="26"/>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>10</v>
       </c>
@@ -7619,7 +7624,7 @@
       <c r="J56" s="26"/>
       <c r="K56" s="26"/>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>9</v>
       </c>
@@ -7637,7 +7642,7 @@
       <c r="J57" s="26"/>
       <c r="K57" s="26"/>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>8</v>
       </c>
@@ -7655,7 +7660,7 @@
       <c r="J58" s="26"/>
       <c r="K58" s="26"/>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>7</v>
       </c>
@@ -7673,7 +7678,7 @@
       <c r="J59" s="26"/>
       <c r="K59" s="26"/>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>6</v>
       </c>
@@ -7691,7 +7696,7 @@
       <c r="J60" s="26"/>
       <c r="K60" s="26"/>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>5</v>
       </c>
@@ -7705,7 +7710,7 @@
       <c r="J61" s="26"/>
       <c r="K61" s="26"/>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>4</v>
       </c>
@@ -7719,7 +7724,7 @@
       <c r="J62" s="26"/>
       <c r="K62" s="26"/>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>3</v>
       </c>
@@ -7733,7 +7738,7 @@
       <c r="J63" s="26"/>
       <c r="K63" s="26"/>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>2</v>
       </c>
@@ -7747,7 +7752,7 @@
       <c r="J64" s="26"/>
       <c r="K64" s="26"/>
     </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>1</v>
       </c>
@@ -7761,7 +7766,7 @@
       <c r="J65" s="26"/>
       <c r="K65" s="26"/>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C66">
         <v>1</v>
       </c>
@@ -7790,7 +7795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C68" s="63" t="s">
         <v>190</v>
       </c>
@@ -7803,7 +7808,7 @@
       <c r="J68" s="63"/>
       <c r="K68" s="63"/>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
       <c r="G71" s="63"/>
       <c r="H71" s="63"/>
       <c r="I71" s="63"/>
@@ -7835,24 +7840,24 @@
       <selection pane="bottomLeft" activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="10.5" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" customWidth="1"/>
-    <col min="13" max="13" width="10.1640625" customWidth="1"/>
-    <col min="15" max="16" width="10.1640625" customWidth="1"/>
-    <col min="18" max="18" width="9.83203125" customWidth="1"/>
-    <col min="19" max="19" width="10.5" customWidth="1"/>
-    <col min="21" max="21" width="10.33203125" customWidth="1"/>
-    <col min="22" max="22" width="10.6640625" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" customWidth="1"/>
+    <col min="15" max="16" width="10.140625" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" customWidth="1"/>
+    <col min="21" max="21" width="10.28515625" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" customWidth="1"/>
     <col min="24" max="24" width="10" customWidth="1"/>
-    <col min="27" max="27" width="9.6640625" customWidth="1"/>
-    <col min="29" max="29" width="9.83203125" customWidth="1"/>
-    <col min="30" max="30" width="11.33203125" customWidth="1"/>
+    <col min="27" max="27" width="9.7109375" customWidth="1"/>
+    <col min="29" max="29" width="9.85546875" customWidth="1"/>
+    <col min="30" max="30" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>9</v>
       </c>
@@ -7951,7 +7956,7 @@
       </c>
       <c r="AH1" s="10"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="36">
         <v>45210</v>
       </c>
@@ -8037,7 +8042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="36">
         <v>45210</v>
       </c>
@@ -8123,7 +8128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="36">
         <v>45210</v>
       </c>
@@ -8209,7 +8214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="36">
         <v>45210</v>
       </c>
@@ -8295,7 +8300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="36">
         <v>45210</v>
       </c>
@@ -8381,7 +8386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="36">
         <v>45210</v>
       </c>
@@ -8467,7 +8472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="36">
         <v>45210</v>
       </c>
@@ -8553,7 +8558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="36">
         <v>45210</v>
       </c>
@@ -8639,7 +8644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="36">
         <v>45210</v>
       </c>
@@ -8725,7 +8730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="36">
         <v>45210</v>
       </c>
@@ -8811,7 +8816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="36">
         <v>45210</v>
       </c>
@@ -8897,7 +8902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="36">
         <v>45210</v>
       </c>
@@ -8983,7 +8988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="36">
         <v>45210</v>
       </c>
@@ -9069,7 +9074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="36">
         <v>45210</v>
       </c>
@@ -9155,7 +9160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="36">
         <v>45210</v>
       </c>
@@ -9241,7 +9246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="36">
         <v>45210</v>
       </c>
@@ -9327,7 +9332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="36">
         <v>45210</v>
       </c>
@@ -9413,7 +9418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="36">
         <v>45210</v>
       </c>
@@ -9499,7 +9504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="36">
         <v>45210</v>
       </c>
@@ -9585,7 +9590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="36">
         <v>45210</v>
       </c>
@@ -9671,7 +9676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="36">
         <v>45210</v>
       </c>
@@ -9757,7 +9762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="36">
         <v>45210</v>
       </c>
@@ -9843,7 +9848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="36">
         <v>45210</v>
       </c>
@@ -9929,7 +9934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="36">
         <v>45210</v>
       </c>
@@ -10001,7 +10006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="36">
         <v>45210</v>
       </c>
@@ -10087,7 +10092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="36">
         <v>45210</v>
       </c>
@@ -10173,7 +10178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="36">
         <v>45210</v>
       </c>
@@ -10259,7 +10264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="36">
         <v>45210</v>
       </c>
@@ -10345,7 +10350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="36">
         <v>45210</v>
       </c>
@@ -10431,7 +10436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="36">
         <v>45210</v>
       </c>
@@ -10517,7 +10522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="36">
         <v>45210</v>
       </c>
@@ -10603,7 +10608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="36">
         <v>45210</v>
       </c>
@@ -10689,7 +10694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="36">
         <v>45210</v>
       </c>
@@ -10775,7 +10780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="36">
         <v>45210</v>
       </c>
@@ -10849,7 +10854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="36">
         <v>45210</v>
       </c>
@@ -10935,7 +10940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="36">
         <v>45210</v>
       </c>
@@ -11021,7 +11026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="36">
         <v>45210</v>
       </c>
@@ -11107,7 +11112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" s="36">
         <v>45210</v>
       </c>
@@ -11193,7 +11198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="36">
         <v>45210</v>
       </c>
@@ -11279,7 +11284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" s="36">
         <v>45210</v>
       </c>
@@ -11386,24 +11391,24 @@
       <selection pane="bottomLeft" activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="10.5" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" customWidth="1"/>
-    <col min="13" max="13" width="10.1640625" customWidth="1"/>
-    <col min="15" max="16" width="10.1640625" customWidth="1"/>
-    <col min="18" max="18" width="9.83203125" customWidth="1"/>
-    <col min="19" max="19" width="10.5" customWidth="1"/>
-    <col min="21" max="21" width="10.33203125" customWidth="1"/>
-    <col min="22" max="22" width="10.6640625" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" customWidth="1"/>
+    <col min="15" max="16" width="10.140625" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" customWidth="1"/>
+    <col min="21" max="21" width="10.28515625" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" customWidth="1"/>
     <col min="24" max="24" width="10" customWidth="1"/>
-    <col min="27" max="27" width="9.6640625" customWidth="1"/>
-    <col min="29" max="29" width="9.83203125" customWidth="1"/>
-    <col min="30" max="30" width="11.33203125" customWidth="1"/>
+    <col min="27" max="27" width="9.7109375" customWidth="1"/>
+    <col min="29" max="29" width="9.85546875" customWidth="1"/>
+    <col min="30" max="30" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>9</v>
       </c>
@@ -11502,7 +11507,7 @@
       </c>
       <c r="AH1" s="10"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="36">
         <v>45217</v>
       </c>
@@ -11603,7 +11608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="36">
         <v>45217</v>
       </c>
@@ -11696,7 +11701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="36">
         <v>45217</v>
       </c>
@@ -11797,7 +11802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="36">
         <v>45217</v>
       </c>
@@ -11899,7 +11904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="36">
         <v>45217</v>
       </c>
@@ -12000,7 +12005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="36">
         <v>45217</v>
       </c>
@@ -12101,7 +12106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="36">
         <v>45217</v>
       </c>
@@ -12202,7 +12207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="36">
         <v>45217</v>
       </c>
@@ -12303,7 +12308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="36">
         <v>45217</v>
       </c>
@@ -12404,7 +12409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="36">
         <v>45217</v>
       </c>
@@ -12505,7 +12510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="36">
         <v>45217</v>
       </c>
@@ -12606,7 +12611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="36">
         <v>45217</v>
       </c>
@@ -12707,7 +12712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="36">
         <v>45217</v>
       </c>
@@ -12808,7 +12813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="36">
         <v>45217</v>
       </c>
@@ -12910,7 +12915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="36">
         <v>45217</v>
       </c>
@@ -13011,7 +13016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="36">
         <v>45217</v>
       </c>
@@ -13112,7 +13117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="36">
         <v>45217</v>
       </c>
@@ -13213,7 +13218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="36">
         <v>45217</v>
       </c>
@@ -13314,7 +13319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="36">
         <v>45217</v>
       </c>
@@ -13415,7 +13420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="36">
         <v>45217</v>
       </c>
@@ -13516,7 +13521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="36">
         <v>45217</v>
       </c>
@@ -13610,7 +13615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="36">
         <v>45217</v>
       </c>
@@ -13711,7 +13716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="36">
         <v>45217</v>
       </c>
@@ -13812,7 +13817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="36">
         <v>45217</v>
       </c>
@@ -13884,7 +13889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="36">
         <v>45217</v>
       </c>
@@ -13985,7 +13990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="36">
         <v>45217</v>
       </c>
@@ -14086,7 +14091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="36">
         <v>45217</v>
       </c>
@@ -14187,7 +14192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="36">
         <v>45217</v>
       </c>
@@ -14288,7 +14293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="36">
         <v>45217</v>
       </c>
@@ -14381,7 +14386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="36">
         <v>45217</v>
       </c>
@@ -14482,7 +14487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="36">
         <v>45217</v>
       </c>
@@ -14583,7 +14588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="36">
         <v>45217</v>
       </c>
@@ -14676,7 +14681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="36">
         <v>45217</v>
       </c>
@@ -14777,7 +14782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="36">
         <v>45217</v>
       </c>
@@ -14878,7 +14883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="36">
         <v>45217</v>
       </c>
@@ -14979,7 +14984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="36">
         <v>45217</v>
       </c>
@@ -15080,7 +15085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="36">
         <v>45217</v>
       </c>
@@ -15181,7 +15186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" s="36">
         <v>45217</v>
       </c>
@@ -15282,7 +15287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="36">
         <v>45217</v>
       </c>
@@ -15383,7 +15388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" s="36">
         <v>45217</v>
       </c>
@@ -15505,42 +15510,42 @@
       <selection pane="bottomLeft" activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" customWidth="1"/>
-    <col min="12" max="12" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" customWidth="1"/>
+    <col min="12" max="12" width="6.85546875" customWidth="1"/>
     <col min="13" max="13" width="7" customWidth="1"/>
-    <col min="14" max="14" width="7.83203125" customWidth="1"/>
-    <col min="15" max="15" width="10.1640625" customWidth="1"/>
-    <col min="16" max="16" width="7.5" customWidth="1"/>
-    <col min="17" max="17" width="8.6640625" customWidth="1"/>
-    <col min="18" max="18" width="5.83203125" customWidth="1"/>
-    <col min="19" max="19" width="6.83203125" customWidth="1"/>
-    <col min="20" max="20" width="10.1640625" customWidth="1"/>
-    <col min="21" max="21" width="7.6640625" customWidth="1"/>
-    <col min="22" max="22" width="6.6640625" customWidth="1"/>
-    <col min="23" max="23" width="6.1640625" customWidth="1"/>
-    <col min="24" max="24" width="6.5" customWidth="1"/>
-    <col min="25" max="25" width="9.83203125" customWidth="1"/>
-    <col min="26" max="26" width="6.33203125" customWidth="1"/>
-    <col min="27" max="27" width="7.5" customWidth="1"/>
-    <col min="28" max="28" width="9.1640625" customWidth="1"/>
-    <col min="29" max="29" width="7.5" customWidth="1"/>
-    <col min="30" max="30" width="10.6640625" customWidth="1"/>
-    <col min="31" max="31" width="6.5" customWidth="1"/>
-    <col min="32" max="32" width="6.33203125" customWidth="1"/>
-    <col min="34" max="34" width="6.5" customWidth="1"/>
-    <col min="37" max="37" width="9.6640625" customWidth="1"/>
-    <col min="39" max="39" width="9.83203125" customWidth="1"/>
-    <col min="40" max="40" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="7.85546875" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" customWidth="1"/>
+    <col min="17" max="17" width="8.7109375" customWidth="1"/>
+    <col min="18" max="18" width="5.85546875" customWidth="1"/>
+    <col min="19" max="19" width="6.85546875" customWidth="1"/>
+    <col min="20" max="20" width="10.140625" customWidth="1"/>
+    <col min="21" max="21" width="7.7109375" customWidth="1"/>
+    <col min="22" max="22" width="6.7109375" customWidth="1"/>
+    <col min="23" max="23" width="6.140625" customWidth="1"/>
+    <col min="24" max="24" width="6.42578125" customWidth="1"/>
+    <col min="25" max="25" width="9.85546875" customWidth="1"/>
+    <col min="26" max="26" width="6.28515625" customWidth="1"/>
+    <col min="27" max="27" width="7.42578125" customWidth="1"/>
+    <col min="28" max="28" width="9.140625" customWidth="1"/>
+    <col min="29" max="29" width="7.42578125" customWidth="1"/>
+    <col min="30" max="30" width="10.7109375" customWidth="1"/>
+    <col min="31" max="31" width="6.42578125" customWidth="1"/>
+    <col min="32" max="32" width="6.28515625" customWidth="1"/>
+    <col min="34" max="34" width="6.42578125" customWidth="1"/>
+    <col min="37" max="37" width="9.7109375" customWidth="1"/>
+    <col min="39" max="39" width="9.85546875" customWidth="1"/>
+    <col min="40" max="40" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>9</v>
       </c>
@@ -15669,7 +15674,7 @@
       </c>
       <c r="AR1" s="10"/>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" s="36">
         <v>45224</v>
       </c>
@@ -15794,7 +15799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" s="36">
         <v>45224</v>
       </c>
@@ -15919,7 +15924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" s="36">
         <v>45224</v>
       </c>
@@ -16044,7 +16049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" s="36">
         <v>45224</v>
       </c>
@@ -16170,7 +16175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" s="36">
         <v>45224</v>
       </c>
@@ -16295,7 +16300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="36">
         <v>45224</v>
       </c>
@@ -16420,7 +16425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" s="36">
         <v>45224</v>
       </c>
@@ -16545,7 +16550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" s="36">
         <v>45224</v>
       </c>
@@ -16670,7 +16675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" s="36">
         <v>45224</v>
       </c>
@@ -16795,7 +16800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" s="36">
         <v>45224</v>
       </c>
@@ -16920,7 +16925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" s="36">
         <v>45224</v>
       </c>
@@ -17045,7 +17050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" s="36">
         <v>45224</v>
       </c>
@@ -17170,7 +17175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" s="36">
         <v>45224</v>
       </c>
@@ -17295,7 +17300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" s="36">
         <v>45224</v>
       </c>
@@ -17421,7 +17426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" s="36">
         <v>45224</v>
       </c>
@@ -17546,7 +17551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" s="36">
         <v>45224</v>
       </c>
@@ -17671,7 +17676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" s="36">
         <v>45224</v>
       </c>
@@ -17796,7 +17801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" s="36">
         <v>45224</v>
       </c>
@@ -17921,7 +17926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" s="36">
         <v>45224</v>
       </c>
@@ -18046,7 +18051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" s="36">
         <v>45224</v>
       </c>
@@ -18171,7 +18176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" s="36">
         <v>45224</v>
       </c>
@@ -18297,7 +18302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" s="36">
         <v>45224</v>
       </c>
@@ -18422,7 +18427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24" s="36">
         <v>45224</v>
       </c>
@@ -18547,7 +18552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" s="36">
         <v>45224</v>
       </c>
@@ -18658,7 +18663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26" s="36">
         <v>45224</v>
       </c>
@@ -18783,7 +18788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" s="36">
         <v>45224</v>
       </c>
@@ -18908,7 +18913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A28" s="36">
         <v>45224</v>
       </c>
@@ -19033,7 +19038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29" s="36">
         <v>45224</v>
       </c>
@@ -19158,7 +19163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A30" s="36">
         <v>45224</v>
       </c>
@@ -19283,7 +19288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A31" s="36">
         <v>45224</v>
       </c>
@@ -19408,7 +19413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A32" s="36">
         <v>45224</v>
       </c>
@@ -19533,7 +19538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33" s="36">
         <v>45224</v>
       </c>
@@ -19658,7 +19663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A34" s="36">
         <v>45224</v>
       </c>
@@ -19783,7 +19788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A35" s="36">
         <v>45224</v>
       </c>
@@ -19908,7 +19913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A36" s="36">
         <v>45224</v>
       </c>
@@ -20033,7 +20038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A37" s="36">
         <v>45224</v>
       </c>
@@ -20158,7 +20163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A38" s="36">
         <v>45224</v>
       </c>
@@ -20283,7 +20288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A39" s="36">
         <v>45224</v>
       </c>
@@ -20408,7 +20413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A40" s="36">
         <v>45224</v>
       </c>
@@ -20533,7 +20538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A41" s="36">
         <v>45224</v>
       </c>
@@ -20673,39 +20678,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7665DD2-48B2-4F68-ADF8-50F3F97670F1}">
   <dimension ref="A1:AR41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="O151" sqref="O151"/>
       <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="9" width="8.83203125" customWidth="1"/>
-    <col min="10" max="10" width="10.5" customWidth="1"/>
+    <col min="7" max="9" width="8.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
     <col min="12" max="12" width="4" customWidth="1"/>
-    <col min="13" max="13" width="6.33203125" customWidth="1"/>
-    <col min="14" max="14" width="5.5" customWidth="1"/>
-    <col min="15" max="15" width="10.1640625" customWidth="1"/>
-    <col min="17" max="17" width="3.83203125" customWidth="1"/>
-    <col min="18" max="18" width="5.83203125" customWidth="1"/>
-    <col min="19" max="20" width="10.1640625" customWidth="1"/>
-    <col min="22" max="22" width="2.6640625" customWidth="1"/>
-    <col min="23" max="23" width="6.1640625" customWidth="1"/>
-    <col min="24" max="24" width="9.83203125" customWidth="1"/>
-    <col min="25" max="25" width="10.5" customWidth="1"/>
-    <col min="27" max="27" width="2.6640625" customWidth="1"/>
-    <col min="29" max="29" width="10.33203125" customWidth="1"/>
-    <col min="30" max="30" width="10.6640625" customWidth="1"/>
-    <col min="32" max="32" width="3.33203125" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" customWidth="1"/>
+    <col min="14" max="14" width="5.42578125" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" customWidth="1"/>
+    <col min="17" max="17" width="3.85546875" customWidth="1"/>
+    <col min="18" max="18" width="5.85546875" customWidth="1"/>
+    <col min="19" max="20" width="10.140625" customWidth="1"/>
+    <col min="22" max="22" width="2.7109375" customWidth="1"/>
+    <col min="23" max="23" width="6.140625" customWidth="1"/>
+    <col min="24" max="24" width="9.85546875" customWidth="1"/>
+    <col min="25" max="25" width="10.42578125" customWidth="1"/>
+    <col min="27" max="27" width="2.7109375" customWidth="1"/>
+    <col min="29" max="29" width="10.28515625" customWidth="1"/>
+    <col min="30" max="30" width="10.7109375" customWidth="1"/>
+    <col min="32" max="32" width="3.28515625" customWidth="1"/>
     <col min="34" max="34" width="10" customWidth="1"/>
-    <col min="37" max="37" width="9.6640625" customWidth="1"/>
-    <col min="39" max="39" width="9.83203125" customWidth="1"/>
-    <col min="40" max="40" width="11.33203125" customWidth="1"/>
+    <col min="37" max="37" width="9.7109375" customWidth="1"/>
+    <col min="39" max="39" width="9.85546875" customWidth="1"/>
+    <col min="40" max="40" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>9</v>
       </c>
@@ -20834,7 +20839,7 @@
       </c>
       <c r="AR1" s="10"/>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" s="36">
         <v>45231</v>
       </c>
@@ -20959,7 +20964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" s="36">
         <v>45231</v>
       </c>
@@ -21084,7 +21089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" s="36">
         <v>45231</v>
       </c>
@@ -21209,7 +21214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" s="36">
         <v>45231</v>
       </c>
@@ -21335,7 +21340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" s="36">
         <v>45231</v>
       </c>
@@ -21460,7 +21465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="36">
         <v>45231</v>
       </c>
@@ -21585,7 +21590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" s="36">
         <v>45231</v>
       </c>
@@ -21710,7 +21715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" s="36">
         <v>45231</v>
       </c>
@@ -21835,7 +21840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" s="36">
         <v>45231</v>
       </c>
@@ -21960,7 +21965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" s="36">
         <v>45231</v>
       </c>
@@ -22085,7 +22090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" s="36">
         <v>45231</v>
       </c>
@@ -22210,7 +22215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" s="36">
         <v>45231</v>
       </c>
@@ -22335,7 +22340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" s="36">
         <v>45231</v>
       </c>
@@ -22460,7 +22465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" s="36">
         <v>45231</v>
       </c>
@@ -22586,7 +22591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" s="36">
         <v>45231</v>
       </c>
@@ -22711,7 +22716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" s="36">
         <v>45231</v>
       </c>
@@ -22836,7 +22841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" s="36">
         <v>45231</v>
       </c>
@@ -22961,7 +22966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" s="36">
         <v>45231</v>
       </c>
@@ -23086,7 +23091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" s="36">
         <v>45231</v>
       </c>
@@ -23211,7 +23216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" s="36">
         <v>45231</v>
       </c>
@@ -23336,7 +23341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" s="36">
         <v>45231</v>
       </c>
@@ -23448,7 +23453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" s="36">
         <v>45231</v>
       </c>
@@ -23573,7 +23578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24" s="36">
         <v>45231</v>
       </c>
@@ -23698,7 +23703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" s="36">
         <v>45231</v>
       </c>
@@ -23770,7 +23775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26" s="36">
         <v>45231</v>
       </c>
@@ -23895,7 +23900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" s="36">
         <v>45231</v>
       </c>
@@ -24020,7 +24025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A28" s="36">
         <v>45231</v>
       </c>
@@ -24145,7 +24150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29" s="36">
         <v>45231</v>
       </c>
@@ -24270,7 +24275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A30" s="36">
         <v>45231</v>
       </c>
@@ -24395,7 +24400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A31" s="36">
         <v>45231</v>
       </c>
@@ -24520,7 +24525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A32" s="36">
         <v>45231</v>
       </c>
@@ -24645,7 +24650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33" s="36">
         <v>45231</v>
       </c>
@@ -24770,7 +24775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A34" s="36">
         <v>45231</v>
       </c>
@@ -24895,7 +24900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A35" s="36">
         <v>45231</v>
       </c>
@@ -25020,7 +25025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A36" s="36">
         <v>45231</v>
       </c>
@@ -25145,7 +25150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A37" s="36">
         <v>45231</v>
       </c>
@@ -25270,7 +25275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A38" s="36">
         <v>45231</v>
       </c>
@@ -25395,7 +25400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A39" s="36">
         <v>45231</v>
       </c>
@@ -25520,7 +25525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A40" s="36">
         <v>45231</v>
       </c>
@@ -25645,7 +25650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A41" s="36">
         <v>45231</v>
       </c>
@@ -25781,30 +25786,30 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="84.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="84.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="52" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
       <c r="Q1" s="16"/>
       <c r="R1" s="16"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B2" s="23"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3" s="56" t="s">
         <v>4</v>
       </c>
@@ -25824,7 +25829,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="56" t="s">
         <v>9</v>
       </c>
@@ -25842,7 +25847,7 @@
       </c>
       <c r="G4" s="29"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" s="56" t="s">
         <v>0</v>
       </c>
@@ -25860,7 +25865,7 @@
       </c>
       <c r="G5" s="29"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" s="57" t="s">
         <v>29</v>
       </c>
@@ -25878,7 +25883,7 @@
       </c>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="57" t="s">
         <v>58</v>
       </c>
@@ -25890,7 +25895,7 @@
       <c r="F7" s="21"/>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" s="58" t="s">
         <v>59</v>
       </c>
@@ -25902,7 +25907,7 @@
       <c r="F8" s="21"/>
       <c r="G8" s="29"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="59" t="s">
         <v>60</v>
@@ -25915,7 +25920,7 @@
       <c r="F9" s="21"/>
       <c r="G9" s="29"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" s="57" t="s">
         <v>15</v>
       </c>
@@ -25933,7 +25938,7 @@
       </c>
       <c r="G10" s="29"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" s="57" t="s">
         <v>40</v>
       </c>
@@ -25951,7 +25956,7 @@
       </c>
       <c r="G11" s="29"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" s="57" t="s">
         <v>42</v>
       </c>
@@ -25969,7 +25974,7 @@
       </c>
       <c r="G12" s="29"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" s="57" t="s">
         <v>16</v>
       </c>
@@ -25989,7 +25994,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="24" x14ac:dyDescent="0.25">
       <c r="B14" s="57" t="s">
         <v>17</v>
       </c>
@@ -26007,7 +26012,7 @@
       </c>
       <c r="G14" s="65"/>
     </row>
-    <row r="15" spans="1:18" ht="26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="24" x14ac:dyDescent="0.25">
       <c r="B15" s="57" t="s">
         <v>18</v>
       </c>
@@ -26025,7 +26030,7 @@
       </c>
       <c r="G15" s="66"/>
     </row>
-    <row r="16" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="60" t="s">
         <v>36</v>
       </c>
@@ -26045,7 +26050,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="60" t="s">
         <v>37</v>
       </c>
@@ -26065,7 +26070,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="60" t="s">
         <v>181</v>
       </c>
@@ -26085,7 +26090,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="60" t="s">
         <v>182</v>
       </c>
@@ -26101,7 +26106,7 @@
       </c>
       <c r="G19" s="29"/>
     </row>
-    <row r="20" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="60" t="s">
         <v>183</v>
       </c>
@@ -26117,7 +26122,7 @@
       </c>
       <c r="G20" s="29"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="57" t="s">
         <v>114</v>
       </c>
@@ -26135,7 +26140,7 @@
       </c>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="46" t="s">
         <v>132</v>
       </c>
@@ -26151,7 +26156,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="46" t="s">
         <v>133</v>
       </c>
@@ -26167,7 +26172,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="46" t="s">
         <v>177</v>
       </c>
@@ -26183,7 +26188,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="46" t="s">
         <v>126</v>
       </c>
@@ -26199,7 +26204,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="46" t="s">
         <v>127</v>
       </c>
@@ -26215,7 +26220,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="46" t="s">
         <v>128</v>
       </c>
@@ -26249,144 +26254,144 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>69</v>
       </c>
@@ -26403,7 +26408,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="40">
         <v>45175</v>
       </c>
@@ -26420,7 +26425,7 @@
         <v>5.397560975609756</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="40">
         <v>45181</v>
       </c>
@@ -26437,7 +26442,7 @@
         <v>7.3237500000000022</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>85</v>
       </c>
@@ -26454,7 +26459,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>87</v>
       </c>
@@ -26471,7 +26476,7 @@
         <v>6.18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>86</v>
       </c>
@@ -26488,7 +26493,7 @@
         <v>6.839999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>88</v>
       </c>
@@ -26505,7 +26510,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>81</v>
       </c>
@@ -26522,7 +26527,7 @@
         <v>6.6599999999999993</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>83</v>
       </c>
@@ -26539,7 +26544,7 @@
         <v>6.5600000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>82</v>
       </c>
@@ -26556,7 +26561,7 @@
         <v>6.82</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>84</v>
       </c>
@@ -26573,7 +26578,7 @@
         <v>5.64</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>101</v>
       </c>
@@ -26590,7 +26595,7 @@
         <v>9.14</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>103</v>
       </c>
@@ -26607,7 +26612,7 @@
         <v>7.94</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>102</v>
       </c>
@@ -26624,7 +26629,7 @@
         <v>8.52</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>104</v>
       </c>
@@ -26641,7 +26646,7 @@
         <v>7.839999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>97</v>
       </c>
@@ -26658,7 +26663,7 @@
         <v>8.120000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>99</v>
       </c>
@@ -26675,7 +26680,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>98</v>
       </c>
@@ -26692,7 +26697,7 @@
         <v>7.92</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>100</v>
       </c>
@@ -26709,7 +26714,7 @@
         <v>8.92</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>77</v>
       </c>
@@ -26726,7 +26731,7 @@
         <v>8.0599999999999987</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>79</v>
       </c>
@@ -26743,7 +26748,7 @@
         <v>8.66</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>78</v>
       </c>
@@ -26760,7 +26765,7 @@
         <v>7.6400000000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>80</v>
       </c>
@@ -26777,7 +26782,7 @@
         <v>8.1800000000000015</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>73</v>
       </c>
@@ -26794,7 +26799,7 @@
         <v>7.8600000000000012</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>75</v>
       </c>
@@ -26811,7 +26816,7 @@
         <v>8.3199999999999985</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>74</v>
       </c>
@@ -26828,7 +26833,7 @@
         <v>8.58</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>76</v>
       </c>
@@ -26845,7 +26850,7 @@
         <v>8.4599999999999991</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>93</v>
       </c>
@@ -26862,7 +26867,7 @@
         <v>6.32</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>95</v>
       </c>
@@ -26879,7 +26884,7 @@
         <v>6.18</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>94</v>
       </c>
@@ -26896,7 +26901,7 @@
         <v>6.26</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>96</v>
       </c>
@@ -26913,7 +26918,7 @@
         <v>5.7799999999999994</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>89</v>
       </c>
@@ -26930,7 +26935,7 @@
         <v>5.7799999999999994</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>91</v>
       </c>
@@ -26947,7 +26952,7 @@
         <v>7.06</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>90</v>
       </c>
@@ -26964,7 +26969,7 @@
         <v>7.0400000000000009</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>92</v>
       </c>
@@ -26981,7 +26986,7 @@
         <v>6.42</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="40" t="s">
         <v>70</v>
       </c>
@@ -27007,46 +27012,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F6C3796-AE53-4689-B7D5-C38018DC7E3C}">
   <dimension ref="A1:AY361"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N76" sqref="N76"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5" customWidth="1"/>
-    <col min="5" max="6" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" customWidth="1"/>
-    <col min="8" max="8" width="5.33203125" customWidth="1"/>
-    <col min="9" max="9" width="11.5" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" style="17" customWidth="1"/>
-    <col min="12" max="12" width="10.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" customWidth="1"/>
+    <col min="5" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="39" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" style="17" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" style="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5" style="2" customWidth="1"/>
-    <col min="15" max="18" width="8.33203125" customWidth="1"/>
-    <col min="19" max="19" width="12.5" style="5" customWidth="1"/>
-    <col min="21" max="23" width="8.33203125" customWidth="1"/>
-    <col min="24" max="24" width="11.5" style="5" customWidth="1"/>
-    <col min="25" max="25" width="6.5" customWidth="1"/>
-    <col min="26" max="28" width="8.33203125" customWidth="1"/>
-    <col min="29" max="29" width="12.5" style="5" customWidth="1"/>
-    <col min="31" max="33" width="8.33203125" customWidth="1"/>
-    <col min="34" max="34" width="10.6640625" style="5" customWidth="1"/>
-    <col min="35" max="35" width="7.33203125" customWidth="1"/>
-    <col min="36" max="38" width="8.33203125" customWidth="1"/>
-    <col min="39" max="39" width="11.6640625" customWidth="1"/>
-    <col min="40" max="40" width="58.6640625" customWidth="1"/>
-    <col min="41" max="41" width="9.1640625" style="2"/>
-    <col min="48" max="48" width="10.5" customWidth="1"/>
-    <col min="49" max="49" width="16.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="50" max="51" width="16.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="2" customWidth="1"/>
+    <col min="15" max="18" width="8.28515625" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" style="5" customWidth="1"/>
+    <col min="21" max="23" width="8.28515625" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" style="5" customWidth="1"/>
+    <col min="25" max="25" width="6.42578125" customWidth="1"/>
+    <col min="26" max="28" width="8.28515625" customWidth="1"/>
+    <col min="29" max="29" width="12.42578125" style="5" customWidth="1"/>
+    <col min="31" max="33" width="8.28515625" customWidth="1"/>
+    <col min="34" max="34" width="10.7109375" style="5" customWidth="1"/>
+    <col min="35" max="35" width="7.28515625" customWidth="1"/>
+    <col min="36" max="38" width="8.28515625" customWidth="1"/>
+    <col min="39" max="39" width="11.7109375" customWidth="1"/>
+    <col min="40" max="40" width="58.7109375" customWidth="1"/>
+    <col min="41" max="41" width="9.140625" style="2"/>
+    <col min="48" max="48" width="10.42578125" customWidth="1"/>
+    <col min="49" max="49" width="16.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="16.7109375" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="8" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:51" s="8" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>9</v>
+        <v>195</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -27199,7 +27204,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45175</v>
       </c>
@@ -27275,7 +27280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45175</v>
       </c>
@@ -27351,7 +27356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45175</v>
       </c>
@@ -27439,7 +27444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45175</v>
       </c>
@@ -27515,7 +27520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45175</v>
       </c>
@@ -27603,7 +27608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45175</v>
       </c>
@@ -27679,7 +27684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45175</v>
       </c>
@@ -27755,7 +27760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45175</v>
       </c>
@@ -27843,7 +27848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45175</v>
       </c>
@@ -27919,7 +27924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45175</v>
       </c>
@@ -27995,7 +28000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45175</v>
       </c>
@@ -28071,7 +28076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45175</v>
       </c>
@@ -28147,7 +28152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45175</v>
       </c>
@@ -28235,7 +28240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45175</v>
       </c>
@@ -28311,7 +28316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45175</v>
       </c>
@@ -28387,7 +28392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45175</v>
       </c>
@@ -28475,7 +28480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45175</v>
       </c>
@@ -28551,7 +28556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45175</v>
       </c>
@@ -28639,7 +28644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45175</v>
       </c>
@@ -28715,7 +28720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45175</v>
       </c>
@@ -28791,7 +28796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45175</v>
       </c>
@@ -28867,7 +28872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45175</v>
       </c>
@@ -28943,7 +28948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45175</v>
       </c>
@@ -29031,7 +29036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45175</v>
       </c>
@@ -29107,7 +29112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45175</v>
       </c>
@@ -29183,7 +29188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45175</v>
       </c>
@@ -29259,7 +29264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45175</v>
       </c>
@@ -29335,7 +29340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45175</v>
       </c>
@@ -29423,7 +29428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>45175</v>
       </c>
@@ -29499,7 +29504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45175</v>
       </c>
@@ -29575,7 +29580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45175</v>
       </c>
@@ -29651,7 +29656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>45175</v>
       </c>
@@ -29727,7 +29732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>45175</v>
       </c>
@@ -29815,7 +29820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>45175</v>
       </c>
@@ -29891,7 +29896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>45175</v>
       </c>
@@ -29979,7 +29984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>45175</v>
       </c>
@@ -30055,7 +30060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>45175</v>
       </c>
@@ -30131,7 +30136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>45175</v>
       </c>
@@ -30219,7 +30224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>45175</v>
       </c>
@@ -30295,7 +30300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>45175</v>
       </c>
@@ -30371,7 +30376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>45181</v>
       </c>
@@ -30460,7 +30465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>45181</v>
       </c>
@@ -30549,7 +30554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>45181</v>
       </c>
@@ -30638,7 +30643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45181</v>
       </c>
@@ -30727,7 +30732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45181</v>
       </c>
@@ -30816,7 +30821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45181</v>
       </c>
@@ -30905,7 +30910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45181</v>
       </c>
@@ -30997,7 +31002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>45181</v>
       </c>
@@ -31086,7 +31091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>45181</v>
       </c>
@@ -31175,7 +31180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>45181</v>
       </c>
@@ -31264,7 +31269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>45181</v>
       </c>
@@ -31353,7 +31358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>45181</v>
       </c>
@@ -31442,7 +31447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>45181</v>
       </c>
@@ -31531,7 +31536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>45181</v>
       </c>
@@ -31620,7 +31625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>45181</v>
       </c>
@@ -31709,7 +31714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>45181</v>
       </c>
@@ -31798,7 +31803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>45181</v>
       </c>
@@ -31887,7 +31892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>45181</v>
       </c>
@@ -31976,7 +31981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>45181</v>
       </c>
@@ -32065,7 +32070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>45181</v>
       </c>
@@ -32154,7 +32159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>45181</v>
       </c>
@@ -32243,7 +32248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>45181</v>
       </c>
@@ -32332,7 +32337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>45181</v>
       </c>
@@ -32421,7 +32426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>45181</v>
       </c>
@@ -32510,7 +32515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45181</v>
       </c>
@@ -32599,7 +32604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>45181</v>
       </c>
@@ -32688,7 +32693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>45181</v>
       </c>
@@ -32777,7 +32782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>45181</v>
       </c>
@@ -32866,7 +32871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>45181</v>
       </c>
@@ -32955,7 +32960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>45181</v>
       </c>
@@ -33044,7 +33049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>45181</v>
       </c>
@@ -33133,7 +33138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>45181</v>
       </c>
@@ -33222,7 +33227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>45181</v>
       </c>
@@ -33311,7 +33316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>45181</v>
       </c>
@@ -33400,7 +33405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>45181</v>
       </c>
@@ -33489,7 +33494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>45181</v>
       </c>
@@ -33578,7 +33583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>45181</v>
       </c>
@@ -33667,7 +33672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>45181</v>
       </c>
@@ -33756,7 +33761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>45181</v>
       </c>
@@ -33845,7 +33850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>45181</v>
       </c>
@@ -33934,7 +33939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>45189</v>
       </c>
@@ -34022,7 +34027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>45189</v>
       </c>
@@ -34113,7 +34118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>45189</v>
       </c>
@@ -34204,7 +34209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>45189</v>
       </c>
@@ -34292,7 +34297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>45189</v>
       </c>
@@ -34380,7 +34385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>45189</v>
       </c>
@@ -34468,7 +34473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>45189</v>
       </c>
@@ -34553,7 +34558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>45189</v>
       </c>
@@ -34641,7 +34646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>45189</v>
       </c>
@@ -34729,7 +34734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>45189</v>
       </c>
@@ -34814,7 +34819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>45189</v>
       </c>
@@ -34905,7 +34910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>45189</v>
       </c>
@@ -34996,7 +35001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>45189</v>
       </c>
@@ -35084,7 +35089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>45189</v>
       </c>
@@ -35172,7 +35177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>45189</v>
       </c>
@@ -35260,7 +35265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>45189</v>
       </c>
@@ -35348,7 +35353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>45189</v>
       </c>
@@ -35433,7 +35438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>45189</v>
       </c>
@@ -35518,7 +35523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>45189</v>
       </c>
@@ -35606,7 +35611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>45189</v>
       </c>
@@ -35694,7 +35699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>45189</v>
       </c>
@@ -35788,7 +35793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>45189</v>
       </c>
@@ -35876,7 +35881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>45189</v>
       </c>
@@ -35967,7 +35972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>45189</v>
       </c>
@@ -36055,7 +36060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>45189</v>
       </c>
@@ -36143,7 +36148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>45189</v>
       </c>
@@ -36231,7 +36236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>45189</v>
       </c>
@@ -36322,7 +36327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>45189</v>
       </c>
@@ -36410,7 +36415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>45189</v>
       </c>
@@ -36498,7 +36503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>45189</v>
       </c>
@@ -36589,7 +36594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>45189</v>
       </c>
@@ -36677,7 +36682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>45189</v>
       </c>
@@ -36768,7 +36773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>45189</v>
       </c>
@@ -36859,7 +36864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>45189</v>
       </c>
@@ -36950,7 +36955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>45189</v>
       </c>
@@ -37041,7 +37046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>45189</v>
       </c>
@@ -37132,7 +37137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>45189</v>
       </c>
@@ -37220,7 +37225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>45189</v>
       </c>
@@ -37308,7 +37313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>45189</v>
       </c>
@@ -37393,7 +37398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>45189</v>
       </c>
@@ -37481,7 +37486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>45196</v>
       </c>
@@ -37594,7 +37599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>45196</v>
       </c>
@@ -37707,7 +37712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>45196</v>
       </c>
@@ -37826,7 +37831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>45196</v>
       </c>
@@ -37933,7 +37938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>45196</v>
       </c>
@@ -38052,7 +38057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>45196</v>
       </c>
@@ -38159,7 +38164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>45196</v>
       </c>
@@ -38251,7 +38256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>45196</v>
       </c>
@@ -38358,7 +38363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>45196</v>
       </c>
@@ -38471,7 +38476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>45196</v>
       </c>
@@ -38572,7 +38577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>45196</v>
       </c>
@@ -38685,7 +38690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>45196</v>
       </c>
@@ -38804,7 +38809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>45196</v>
       </c>
@@ -38917,7 +38922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>45196</v>
       </c>
@@ -39030,7 +39035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>45196</v>
       </c>
@@ -39137,7 +39142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>45196</v>
       </c>
@@ -39251,7 +39256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>45196</v>
       </c>
@@ -39353,7 +39358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>45196</v>
       </c>
@@ -39455,7 +39460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>45196</v>
       </c>
@@ -39569,7 +39574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>45196</v>
       </c>
@@ -39677,7 +39682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>45196</v>
       </c>
@@ -39794,7 +39799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>45196</v>
       </c>
@@ -39908,7 +39913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>45196</v>
       </c>
@@ -40027,7 +40032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>45196</v>
       </c>
@@ -40132,7 +40137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>45196</v>
       </c>
@@ -40240,7 +40245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>45196</v>
       </c>
@@ -40354,7 +40359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>45196</v>
       </c>
@@ -40473,7 +40478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>45196</v>
       </c>
@@ -40581,7 +40586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>45196</v>
       </c>
@@ -40695,7 +40700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>45196</v>
       </c>
@@ -40813,7 +40818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>45196</v>
       </c>
@@ -40927,7 +40932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>45196</v>
       </c>
@@ -41041,7 +41046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>45196</v>
       </c>
@@ -41155,7 +41160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>45196</v>
       </c>
@@ -41263,7 +41268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>45196</v>
       </c>
@@ -41377,7 +41382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>45196</v>
       </c>
@@ -41491,7 +41496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>45196</v>
       </c>
@@ -41594,7 +41599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>45196</v>
       </c>
@@ -41702,7 +41707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>45196</v>
       </c>
@@ -41806,7 +41811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>45196</v>
       </c>
@@ -41915,7 +41920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>45203</v>
       </c>
@@ -42033,7 +42038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>45203</v>
       </c>
@@ -42151,7 +42156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>45203</v>
       </c>
@@ -42269,7 +42274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>45203</v>
       </c>
@@ -42387,7 +42392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>45203</v>
       </c>
@@ -42505,7 +42510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>45203</v>
       </c>
@@ -42623,7 +42628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>45203</v>
       </c>
@@ -42744,7 +42749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>45203</v>
       </c>
@@ -42862,7 +42867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>45203</v>
       </c>
@@ -42980,7 +42985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>45203</v>
       </c>
@@ -43092,7 +43097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>45203</v>
       </c>
@@ -43210,7 +43215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>45203</v>
       </c>
@@ -43328,7 +43333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>45203</v>
       </c>
@@ -43446,7 +43451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>45203</v>
       </c>
@@ -43564,7 +43569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>45203</v>
       </c>
@@ -43682,7 +43687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>45203</v>
       </c>
@@ -43800,7 +43805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>45203</v>
       </c>
@@ -43918,7 +43923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>45203</v>
       </c>
@@ -44030,7 +44035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>45203</v>
       </c>
@@ -44148,7 +44153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>45203</v>
       </c>
@@ -44266,7 +44271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>45203</v>
       </c>
@@ -44384,7 +44389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>45203</v>
       </c>
@@ -44502,7 +44507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>45203</v>
       </c>
@@ -44620,7 +44625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>45203</v>
       </c>
@@ -44723,7 +44728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>45203</v>
       </c>
@@ -44841,7 +44846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>45203</v>
       </c>
@@ -44959,7 +44964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>45203</v>
       </c>
@@ -45077,7 +45082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>45203</v>
       </c>
@@ -45195,7 +45200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>45203</v>
       </c>
@@ -45313,7 +45318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>45203</v>
       </c>
@@ -45431,7 +45436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>45203</v>
       </c>
@@ -45543,7 +45548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>45203</v>
       </c>
@@ -45661,7 +45666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>45203</v>
       </c>
@@ -45779,7 +45784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>45203</v>
       </c>
@@ -45891,7 +45896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>45203</v>
       </c>
@@ -46007,7 +46012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>45203</v>
       </c>
@@ -46125,7 +46130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>45203</v>
       </c>
@@ -46237,7 +46242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>45203</v>
       </c>
@@ -46355,7 +46360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>45203</v>
       </c>
@@ -46473,7 +46478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>45203</v>
       </c>
@@ -46591,7 +46596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>45210</v>
       </c>
@@ -46709,7 +46714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>45210</v>
       </c>
@@ -46827,7 +46832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>45210</v>
       </c>
@@ -46945,7 +46950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>45210</v>
       </c>
@@ -47063,7 +47068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>45210</v>
       </c>
@@ -47181,7 +47186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>45210</v>
       </c>
@@ -47299,7 +47304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>45210</v>
       </c>
@@ -47417,7 +47422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>45210</v>
       </c>
@@ -47535,7 +47540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>45210</v>
       </c>
@@ -47653,7 +47658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>45210</v>
       </c>
@@ -47771,7 +47776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>45210</v>
       </c>
@@ -47889,7 +47894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>45210</v>
       </c>
@@ -48007,7 +48012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>45210</v>
       </c>
@@ -48125,7 +48130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>45210</v>
       </c>
@@ -48243,7 +48248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>45210</v>
       </c>
@@ -48361,7 +48366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>45210</v>
       </c>
@@ -48479,7 +48484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>45210</v>
       </c>
@@ -48597,7 +48602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>45210</v>
       </c>
@@ -48715,7 +48720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>45210</v>
       </c>
@@ -48833,7 +48838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>45210</v>
       </c>
@@ -48951,7 +48956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>45210</v>
       </c>
@@ -49069,7 +49074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>45210</v>
       </c>
@@ -49187,7 +49192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>45210</v>
       </c>
@@ -49305,7 +49310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>45210</v>
       </c>
@@ -49406,7 +49411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>45210</v>
       </c>
@@ -49524,7 +49529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>45210</v>
       </c>
@@ -49642,7 +49647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>45210</v>
       </c>
@@ -49760,7 +49765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>45210</v>
       </c>
@@ -49878,7 +49883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>45210</v>
       </c>
@@ -49996,7 +50001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>45210</v>
       </c>
@@ -50114,7 +50119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>45210</v>
       </c>
@@ -50232,7 +50237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>45210</v>
       </c>
@@ -50350,7 +50355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>45210</v>
       </c>
@@ -50468,7 +50473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>45210</v>
       </c>
@@ -50572,7 +50577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>45210</v>
       </c>
@@ -50690,7 +50695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>45210</v>
       </c>
@@ -50808,7 +50813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>45210</v>
       </c>
@@ -50926,7 +50931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>45210</v>
       </c>
@@ -51044,7 +51049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>45210</v>
       </c>
@@ -51162,7 +51167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>45210</v>
       </c>
@@ -51280,7 +51285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>45217</v>
       </c>
@@ -51398,7 +51403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>45217</v>
       </c>
@@ -51510,7 +51515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>45217</v>
       </c>
@@ -51628,7 +51633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>45217</v>
       </c>
@@ -51747,7 +51752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>45217</v>
       </c>
@@ -51865,7 +51870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>45217</v>
       </c>
@@ -51983,7 +51988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>45217</v>
       </c>
@@ -52101,7 +52106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>45217</v>
       </c>
@@ -52219,7 +52224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>45217</v>
       </c>
@@ -52337,7 +52342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>45217</v>
       </c>
@@ -52455,7 +52460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>45217</v>
       </c>
@@ -52573,7 +52578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>45217</v>
       </c>
@@ -52691,7 +52696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>45217</v>
       </c>
@@ -52809,7 +52814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>45217</v>
       </c>
@@ -52928,7 +52933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>45217</v>
       </c>
@@ -53046,7 +53051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>45217</v>
       </c>
@@ -53164,7 +53169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>45217</v>
       </c>
@@ -53282,7 +53287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>45217</v>
       </c>
@@ -53400,7 +53405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>45217</v>
       </c>
@@ -53518,7 +53523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>45217</v>
       </c>
@@ -53636,7 +53641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>45217</v>
       </c>
@@ -53749,7 +53754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>45217</v>
       </c>
@@ -53867,7 +53872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>45217</v>
       </c>
@@ -53985,7 +53990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>45217</v>
       </c>
@@ -54082,7 +54087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>45217</v>
       </c>
@@ -54200,7 +54205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>45217</v>
       </c>
@@ -54318,7 +54323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>45217</v>
       </c>
@@ -54436,7 +54441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>45217</v>
       </c>
@@ -54554,7 +54559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>45217</v>
       </c>
@@ -54666,7 +54671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>45217</v>
       </c>
@@ -54784,7 +54789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>45217</v>
       </c>
@@ -54902,7 +54907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>45217</v>
       </c>
@@ -55014,7 +55019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>45217</v>
       </c>
@@ -55132,7 +55137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>45217</v>
       </c>
@@ -55250,7 +55255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>45217</v>
       </c>
@@ -55368,7 +55373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>45217</v>
       </c>
@@ -55486,7 +55491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>45217</v>
       </c>
@@ -55604,7 +55609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>45217</v>
       </c>
@@ -55722,7 +55727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>45217</v>
       </c>
@@ -55840,7 +55845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>45217</v>
       </c>
@@ -55958,7 +55963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>45224</v>
       </c>
@@ -56115,7 +56120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>45224</v>
       </c>
@@ -56272,7 +56277,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="284" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>45224</v>
       </c>
@@ -56429,7 +56434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>45224</v>
       </c>
@@ -56587,7 +56592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>45224</v>
       </c>
@@ -56744,7 +56749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>45224</v>
       </c>
@@ -56901,7 +56906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>45224</v>
       </c>
@@ -57058,7 +57063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>45224</v>
       </c>
@@ -57215,7 +57220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>45224</v>
       </c>
@@ -57372,7 +57377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>45224</v>
       </c>
@@ -57529,7 +57534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>45224</v>
       </c>
@@ -57686,7 +57691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>45224</v>
       </c>
@@ -57843,7 +57848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>45224</v>
       </c>
@@ -58000,7 +58005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>45224</v>
       </c>
@@ -58158,7 +58163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>45224</v>
       </c>
@@ -58315,7 +58320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>45224</v>
       </c>
@@ -58472,7 +58477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>45224</v>
       </c>
@@ -58629,7 +58634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>45224</v>
       </c>
@@ -58786,7 +58791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>45224</v>
       </c>
@@ -58943,7 +58948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>45224</v>
       </c>
@@ -59100,7 +59105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>45224</v>
       </c>
@@ -59258,7 +59263,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="303" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>45224</v>
       </c>
@@ -59415,7 +59420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>45224</v>
       </c>
@@ -59572,7 +59577,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="305" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>45224</v>
       </c>
@@ -59711,7 +59716,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="306" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>45224</v>
       </c>
@@ -59868,7 +59873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>45224</v>
       </c>
@@ -60025,7 +60030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>45224</v>
       </c>
@@ -60182,7 +60187,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="309" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>45224</v>
       </c>
@@ -60339,7 +60344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>45224</v>
       </c>
@@ -60496,7 +60501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>45224</v>
       </c>
@@ -60653,7 +60658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>45224</v>
       </c>
@@ -60810,7 +60815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>45224</v>
       </c>
@@ -60967,7 +60972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>45224</v>
       </c>
@@ -61124,7 +61129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>45224</v>
       </c>
@@ -61281,7 +61286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>45224</v>
       </c>
@@ -61438,7 +61443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>45224</v>
       </c>
@@ -61595,7 +61600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>45224</v>
       </c>
@@ -61752,7 +61757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>45224</v>
       </c>
@@ -61909,7 +61914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>45224</v>
       </c>
@@ -62066,7 +62071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>45224</v>
       </c>
@@ -62223,7 +62228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>45231</v>
       </c>
@@ -62380,7 +62385,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="323" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>45231</v>
       </c>
@@ -62537,7 +62542,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="324" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>45231</v>
       </c>
@@ -62694,7 +62699,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="325" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>45231</v>
       </c>
@@ -62852,7 +62857,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="326" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>45231</v>
       </c>
@@ -63009,7 +63014,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="327" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>45231</v>
       </c>
@@ -63166,7 +63171,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="328" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>45231</v>
       </c>
@@ -63323,7 +63328,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="329" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>45231</v>
       </c>
@@ -63480,7 +63485,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="330" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>45231</v>
       </c>
@@ -63637,7 +63642,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="331" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>45231</v>
       </c>
@@ -63794,7 +63799,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="332" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>45231</v>
       </c>
@@ -63951,7 +63956,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="333" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>45231</v>
       </c>
@@ -64108,7 +64113,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="334" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>45231</v>
       </c>
@@ -64265,7 +64270,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="335" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>45231</v>
       </c>
@@ -64423,7 +64428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>45231</v>
       </c>
@@ -64580,7 +64585,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="337" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>45231</v>
       </c>
@@ -64737,7 +64742,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="338" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>45231</v>
       </c>
@@ -64894,7 +64899,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="339" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>45231</v>
       </c>
@@ -65051,7 +65056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>45231</v>
       </c>
@@ -65208,7 +65213,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="341" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>45231</v>
       </c>
@@ -65365,7 +65370,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="342" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>45231</v>
       </c>
@@ -65508,7 +65513,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="343" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>45231</v>
       </c>
@@ -65665,7 +65670,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="344" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>45231</v>
       </c>
@@ -65822,7 +65827,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="345" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>45231</v>
       </c>
@@ -65922,7 +65927,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="346" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>45231</v>
       </c>
@@ -66079,7 +66084,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="347" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>45231</v>
       </c>
@@ -66236,7 +66241,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="348" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>45231</v>
       </c>
@@ -66393,7 +66398,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="349" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>45231</v>
       </c>
@@ -66550,7 +66555,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="350" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>45231</v>
       </c>
@@ -66707,7 +66712,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="351" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>45231</v>
       </c>
@@ -66864,7 +66869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>45231</v>
       </c>
@@ -67021,7 +67026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>45231</v>
       </c>
@@ -67178,7 +67183,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="354" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>45231</v>
       </c>
@@ -67335,7 +67340,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="355" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>45231</v>
       </c>
@@ -67492,7 +67497,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="356" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>45231</v>
       </c>
@@ -67649,7 +67654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>45231</v>
       </c>
@@ -67806,7 +67811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>45231</v>
       </c>
@@ -67963,7 +67968,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="359" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>45231</v>
       </c>
@@ -68120,7 +68125,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="360" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>45231</v>
       </c>
@@ -68277,7 +68282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>45231</v>
       </c>
@@ -68448,14 +68453,15 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" customWidth="1"/>
-    <col min="25" max="25" width="109.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="25" max="25" width="109.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
@@ -68532,7 +68538,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45175</v>
       </c>
@@ -68558,7 +68564,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45175</v>
       </c>
@@ -68584,7 +68590,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45175</v>
       </c>
@@ -68621,7 +68627,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45175</v>
       </c>
@@ -68647,7 +68653,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45175</v>
       </c>
@@ -68684,7 +68690,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45175</v>
       </c>
@@ -68710,7 +68716,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45175</v>
       </c>
@@ -68736,7 +68742,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45175</v>
       </c>
@@ -68773,7 +68779,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45175</v>
       </c>
@@ -68799,7 +68805,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45175</v>
       </c>
@@ -68825,7 +68831,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45175</v>
       </c>
@@ -68851,7 +68857,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45175</v>
       </c>
@@ -68877,7 +68883,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45175</v>
       </c>
@@ -68914,7 +68920,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45175</v>
       </c>
@@ -68940,7 +68946,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45175</v>
       </c>
@@ -68966,7 +68972,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45175</v>
       </c>
@@ -69003,7 +69009,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45175</v>
       </c>
@@ -69029,7 +69035,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45175</v>
       </c>
@@ -69066,7 +69072,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45175</v>
       </c>
@@ -69092,7 +69098,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45175</v>
       </c>
@@ -69118,7 +69124,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45175</v>
       </c>
@@ -69144,7 +69150,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45175</v>
       </c>
@@ -69170,7 +69176,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45175</v>
       </c>
@@ -69207,7 +69213,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45175</v>
       </c>
@@ -69233,7 +69239,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45175</v>
       </c>
@@ -69259,7 +69265,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45175</v>
       </c>
@@ -69285,7 +69291,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45175</v>
       </c>
@@ -69311,7 +69317,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45175</v>
       </c>
@@ -69348,7 +69354,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>45175</v>
       </c>
@@ -69374,7 +69380,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45175</v>
       </c>
@@ -69400,7 +69406,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45175</v>
       </c>
@@ -69426,7 +69432,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>45175</v>
       </c>
@@ -69452,7 +69458,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>45175</v>
       </c>
@@ -69489,7 +69495,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>45175</v>
       </c>
@@ -69515,7 +69521,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>45175</v>
       </c>
@@ -69552,7 +69558,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>45175</v>
       </c>
@@ -69578,7 +69584,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>45175</v>
       </c>
@@ -69604,7 +69610,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>45175</v>
       </c>
@@ -69641,7 +69647,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>45175</v>
       </c>
@@ -69667,7 +69673,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>45175</v>
       </c>
@@ -69693,7 +69699,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="F42" s="35"/>
       <c r="G42" s="35"/>
       <c r="H42" s="35"/>
@@ -69711,19 +69717,19 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L90" sqref="L90"/>
-      <selection pane="bottomLeft" activeCell="Y8" sqref="Y8"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
     <col min="25" max="25" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>9</v>
+        <v>195</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -69798,7 +69804,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="36">
         <v>45181</v>
       </c>
@@ -69832,7 +69838,7 @@
       <c r="S2" s="5"/>
       <c r="V2" s="5"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="36">
         <v>45181</v>
       </c>
@@ -69866,7 +69872,7 @@
       <c r="S3" s="5"/>
       <c r="V3" s="5"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="36">
         <v>45181</v>
       </c>
@@ -69900,7 +69906,7 @@
       <c r="S4" s="5"/>
       <c r="V4" s="5"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="36">
         <v>45181</v>
       </c>
@@ -69934,7 +69940,7 @@
       <c r="S5" s="5"/>
       <c r="V5" s="5"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="36">
         <v>45181</v>
       </c>
@@ -69968,7 +69974,7 @@
       <c r="S6" s="5"/>
       <c r="V6" s="5"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="36">
         <v>45181</v>
       </c>
@@ -70002,7 +70008,7 @@
       <c r="S7" s="5"/>
       <c r="V7" s="5"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="36">
         <v>45181</v>
       </c>
@@ -70039,7 +70045,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="36">
         <v>45181</v>
       </c>
@@ -70073,7 +70079,7 @@
       <c r="S9" s="5"/>
       <c r="V9" s="5"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="36">
         <v>45181</v>
       </c>
@@ -70107,7 +70113,7 @@
       <c r="S10" s="5"/>
       <c r="V10" s="5"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="36">
         <v>45181</v>
       </c>
@@ -70141,7 +70147,7 @@
       <c r="S11" s="5"/>
       <c r="V11" s="5"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="36">
         <v>45181</v>
       </c>
@@ -70175,7 +70181,7 @@
       <c r="S12" s="5"/>
       <c r="V12" s="5"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="36">
         <v>45181</v>
       </c>
@@ -70209,7 +70215,7 @@
       <c r="S13" s="5"/>
       <c r="V13" s="5"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="36">
         <v>45181</v>
       </c>
@@ -70243,7 +70249,7 @@
       <c r="S14" s="5"/>
       <c r="V14" s="5"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="36">
         <v>45181</v>
       </c>
@@ -70277,7 +70283,7 @@
       <c r="S15" s="5"/>
       <c r="V15" s="5"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="36">
         <v>45181</v>
       </c>
@@ -70311,7 +70317,7 @@
       <c r="S16" s="5"/>
       <c r="V16" s="5"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="36">
         <v>45181</v>
       </c>
@@ -70345,7 +70351,7 @@
       <c r="S17" s="5"/>
       <c r="V17" s="5"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="36">
         <v>45181</v>
       </c>
@@ -70379,7 +70385,7 @@
       <c r="S18" s="5"/>
       <c r="V18" s="5"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="36">
         <v>45181</v>
       </c>
@@ -70413,7 +70419,7 @@
       <c r="S19" s="5"/>
       <c r="V19" s="5"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="36">
         <v>45181</v>
       </c>
@@ -70447,7 +70453,7 @@
       <c r="S20" s="5"/>
       <c r="V20" s="5"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="36">
         <v>45181</v>
       </c>
@@ -70481,7 +70487,7 @@
       <c r="S21" s="5"/>
       <c r="V21" s="5"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="36">
         <v>45181</v>
       </c>
@@ -70515,7 +70521,7 @@
       <c r="S22" s="5"/>
       <c r="V22" s="5"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="36">
         <v>45181</v>
       </c>
@@ -70549,7 +70555,7 @@
       <c r="S23" s="5"/>
       <c r="V23" s="5"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="36">
         <v>45181</v>
       </c>
@@ -70583,7 +70589,7 @@
       <c r="S24" s="5"/>
       <c r="V24" s="5"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="36">
         <v>45181</v>
       </c>
@@ -70617,7 +70623,7 @@
       <c r="S25" s="5"/>
       <c r="V25" s="5"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="36">
         <v>45181</v>
       </c>
@@ -70651,7 +70657,7 @@
       <c r="S26" s="5"/>
       <c r="V26" s="5"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="36">
         <v>45181</v>
       </c>
@@ -70685,7 +70691,7 @@
       <c r="S27" s="5"/>
       <c r="V27" s="5"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="36">
         <v>45181</v>
       </c>
@@ -70719,7 +70725,7 @@
       <c r="S28" s="5"/>
       <c r="V28" s="5"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="36">
         <v>45181</v>
       </c>
@@ -70753,7 +70759,7 @@
       <c r="S29" s="5"/>
       <c r="V29" s="5"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="36">
         <v>45181</v>
       </c>
@@ -70787,7 +70793,7 @@
       <c r="S30" s="5"/>
       <c r="V30" s="5"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="36">
         <v>45181</v>
       </c>
@@ -70821,7 +70827,7 @@
       <c r="S31" s="5"/>
       <c r="V31" s="5"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="36">
         <v>45181</v>
       </c>
@@ -70855,7 +70861,7 @@
       <c r="S32" s="5"/>
       <c r="V32" s="5"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="36">
         <v>45181</v>
       </c>
@@ -70889,7 +70895,7 @@
       <c r="S33" s="5"/>
       <c r="V33" s="5"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="36">
         <v>45181</v>
       </c>
@@ -70923,7 +70929,7 @@
       <c r="S34" s="5"/>
       <c r="V34" s="5"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="36">
         <v>45181</v>
       </c>
@@ -70957,7 +70963,7 @@
       <c r="S35" s="5"/>
       <c r="V35" s="5"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="36">
         <v>45181</v>
       </c>
@@ -70991,7 +70997,7 @@
       <c r="S36" s="5"/>
       <c r="V36" s="5"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="36">
         <v>45181</v>
       </c>
@@ -71025,7 +71031,7 @@
       <c r="S37" s="5"/>
       <c r="V37" s="5"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="36">
         <v>45181</v>
       </c>
@@ -71059,7 +71065,7 @@
       <c r="S38" s="5"/>
       <c r="V38" s="5"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="36">
         <v>45181</v>
       </c>
@@ -71093,7 +71099,7 @@
       <c r="S39" s="5"/>
       <c r="V39" s="5"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="36">
         <v>45181</v>
       </c>
@@ -71127,7 +71133,7 @@
       <c r="S40" s="5"/>
       <c r="V40" s="5"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="36">
         <v>45181</v>
       </c>
@@ -71171,21 +71177,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7188B81-8A22-4B2E-8B11-FF1FB0F55E20}">
   <dimension ref="A1:AF41"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="O151" sqref="O151"/>
-      <selection pane="bottomLeft" activeCell="Z2" sqref="Z2:Z41"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="27" max="27" width="9.6640625" customWidth="1"/>
-    <col min="28" max="28" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.83203125" customWidth="1"/>
-    <col min="30" max="30" width="11.33203125" customWidth="1"/>
+    <col min="27" max="27" width="9.7109375" customWidth="1"/>
+    <col min="28" max="28" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.85546875" customWidth="1"/>
+    <col min="30" max="30" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>9</v>
       </c>
@@ -71283,7 +71289,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="36">
         <v>45555</v>
       </c>
@@ -71344,7 +71350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="36">
         <v>45555</v>
       </c>
@@ -71407,7 +71413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="36">
         <v>45555</v>
       </c>
@@ -71470,7 +71476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="36">
         <v>45555</v>
       </c>
@@ -71531,7 +71537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="36">
         <v>45555</v>
       </c>
@@ -71592,7 +71598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="36">
         <v>45555</v>
       </c>
@@ -71653,7 +71659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="36">
         <v>45555</v>
       </c>
@@ -71712,7 +71718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="36">
         <v>45555</v>
       </c>
@@ -71773,7 +71779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="36">
         <v>45555</v>
       </c>
@@ -71834,7 +71840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="36">
         <v>45555</v>
       </c>
@@ -71893,7 +71899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="36">
         <v>45555</v>
       </c>
@@ -71956,7 +71962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="36">
         <v>45555</v>
       </c>
@@ -72019,7 +72025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="36">
         <v>45555</v>
       </c>
@@ -72080,7 +72086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="36">
         <v>45555</v>
       </c>
@@ -72141,7 +72147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="36">
         <v>45555</v>
       </c>
@@ -72202,7 +72208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="36">
         <v>45555</v>
       </c>
@@ -72263,7 +72269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="36">
         <v>45555</v>
       </c>
@@ -72322,7 +72328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="36">
         <v>45555</v>
       </c>
@@ -72381,7 +72387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="36">
         <v>45555</v>
       </c>
@@ -72442,7 +72448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="36">
         <v>45555</v>
       </c>
@@ -72503,7 +72509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="36">
         <v>45555</v>
       </c>
@@ -72568,7 +72574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="36">
         <v>45555</v>
       </c>
@@ -72629,7 +72635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="36">
         <v>45555</v>
       </c>
@@ -72692,7 +72698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="36">
         <v>45555</v>
       </c>
@@ -72753,7 +72759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="36">
         <v>45555</v>
       </c>
@@ -72814,7 +72820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="36">
         <v>45555</v>
       </c>
@@ -72875,7 +72881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="36">
         <v>45555</v>
       </c>
@@ -72938,7 +72944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="36">
         <v>45555</v>
       </c>
@@ -72999,7 +73005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="36">
         <v>45555</v>
       </c>
@@ -73060,7 +73066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="36">
         <v>45555</v>
       </c>
@@ -73123,7 +73129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="36">
         <v>45555</v>
       </c>
@@ -73184,7 +73190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="36">
         <v>45555</v>
       </c>
@@ -73247,7 +73253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="36">
         <v>45555</v>
       </c>
@@ -73310,7 +73316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="36">
         <v>45555</v>
       </c>
@@ -73373,7 +73379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="36">
         <v>45555</v>
       </c>
@@ -73436,7 +73442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="36">
         <v>45555</v>
       </c>
@@ -73499,7 +73505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="36">
         <v>45555</v>
       </c>
@@ -73560,7 +73566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" s="36">
         <v>45555</v>
       </c>
@@ -73621,7 +73627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="36">
         <v>45555</v>
       </c>
@@ -73680,7 +73686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" s="36">
         <v>45555</v>
       </c>
@@ -73751,21 +73757,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA92E336-147B-4B80-ACA3-54D67A76585E}">
   <dimension ref="A1:AF121"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="O151" sqref="O151"/>
       <selection pane="bottomLeft" activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="27" max="27" width="9.6640625" customWidth="1"/>
-    <col min="28" max="28" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.83203125" customWidth="1"/>
-    <col min="30" max="30" width="11.33203125" customWidth="1"/>
+    <col min="27" max="27" width="9.7109375" customWidth="1"/>
+    <col min="28" max="28" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.85546875" customWidth="1"/>
+    <col min="30" max="30" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>9</v>
       </c>
@@ -73863,7 +73869,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="36">
         <v>45562</v>
       </c>
@@ -73958,7 +73964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="36">
         <v>45562</v>
       </c>
@@ -74053,7 +74059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="36">
         <v>45562</v>
       </c>
@@ -74155,7 +74161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="36">
         <v>45562</v>
       </c>
@@ -74242,7 +74248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="36">
         <v>45562</v>
       </c>
@@ -74344,7 +74350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="36">
         <v>45562</v>
       </c>
@@ -74431,7 +74437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="36">
         <v>45562</v>
       </c>
@@ -74497,7 +74503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="36">
         <v>45562</v>
       </c>
@@ -74584,7 +74590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="36">
         <v>45562</v>
       </c>
@@ -74679,7 +74685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="36">
         <v>45562</v>
       </c>
@@ -74758,7 +74764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="36">
         <v>45562</v>
       </c>
@@ -74853,7 +74859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="36">
         <v>45562</v>
       </c>
@@ -74955,7 +74961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="36">
         <v>45562</v>
       </c>
@@ -75050,7 +75056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="36">
         <v>45562</v>
       </c>
@@ -75145,7 +75151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="36">
         <v>45562</v>
       </c>
@@ -75232,7 +75238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="36">
         <v>45562</v>
       </c>
@@ -75326,7 +75332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="36">
         <v>45562</v>
       </c>
@@ -75405,7 +75411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="36">
         <v>45562</v>
       </c>
@@ -75484,7 +75490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="36">
         <v>45562</v>
       </c>
@@ -75578,7 +75584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="36">
         <v>45562</v>
       </c>
@@ -75665,7 +75671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="36">
         <v>45562</v>
       </c>
@@ -75762,7 +75768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="36">
         <v>45562</v>
       </c>
@@ -75856,7 +75862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="36">
         <v>45562</v>
       </c>
@@ -75958,7 +75964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="36">
         <v>45562</v>
       </c>
@@ -76040,7 +76046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="36">
         <v>45562</v>
       </c>
@@ -76127,7 +76133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="36">
         <v>45562</v>
       </c>
@@ -76221,7 +76227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="36">
         <v>45562</v>
       </c>
@@ -76323,7 +76329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="36">
         <v>45562</v>
       </c>
@@ -76410,7 +76416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="36">
         <v>45562</v>
       </c>
@@ -76504,7 +76510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="36">
         <v>45562</v>
       </c>
@@ -76605,7 +76611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="36">
         <v>45562</v>
       </c>
@@ -76699,7 +76705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="36">
         <v>45562</v>
       </c>
@@ -76793,7 +76799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="36">
         <v>45562</v>
       </c>
@@ -76887,7 +76893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="36">
         <v>45562</v>
       </c>
@@ -76974,7 +76980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="36">
         <v>45562</v>
       </c>
@@ -77068,7 +77074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="36">
         <v>45562</v>
       </c>
@@ -77162,7 +77168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="36">
         <v>45562</v>
       </c>
@@ -77240,7 +77246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" s="36">
         <v>45562</v>
       </c>
@@ -77327,7 +77333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="36">
         <v>45562</v>
       </c>
@@ -77405,7 +77411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" s="36">
         <v>45562</v>
       </c>
@@ -77491,7 +77497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" s="36"/>
       <c r="F42" s="2"/>
       <c r="J42" s="2"/>
@@ -77507,7 +77513,7 @@
       <c r="AE42" s="7"/>
       <c r="AF42" s="7"/>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" s="36"/>
       <c r="F43" s="2"/>
       <c r="J43" s="2"/>
@@ -77523,7 +77529,7 @@
       <c r="AE43" s="7"/>
       <c r="AF43" s="7"/>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" s="36"/>
       <c r="F44" s="2"/>
       <c r="J44" s="2"/>
@@ -77539,7 +77545,7 @@
       <c r="AE44" s="7"/>
       <c r="AF44" s="7"/>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="36"/>
       <c r="F45" s="2"/>
       <c r="J45" s="2"/>
@@ -77555,7 +77561,7 @@
       <c r="AE45" s="7"/>
       <c r="AF45" s="7"/>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="36"/>
       <c r="F46" s="2"/>
       <c r="J46" s="2"/>
@@ -77571,7 +77577,7 @@
       <c r="AE46" s="7"/>
       <c r="AF46" s="7"/>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="36"/>
       <c r="F47" s="2"/>
       <c r="J47" s="2"/>
@@ -77587,7 +77593,7 @@
       <c r="AE47" s="7"/>
       <c r="AF47" s="7"/>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" s="36"/>
       <c r="F48" s="2"/>
       <c r="J48" s="2"/>
@@ -77603,7 +77609,7 @@
       <c r="AE48" s="7"/>
       <c r="AF48" s="7"/>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" s="36"/>
       <c r="F49" s="2"/>
       <c r="J49" s="2"/>
@@ -77619,7 +77625,7 @@
       <c r="AE49" s="7"/>
       <c r="AF49" s="7"/>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" s="36"/>
       <c r="F50" s="2"/>
       <c r="J50" s="2"/>
@@ -77635,7 +77641,7 @@
       <c r="AE50" s="7"/>
       <c r="AF50" s="7"/>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" s="36"/>
       <c r="F51" s="2"/>
       <c r="J51" s="2"/>
@@ -77651,7 +77657,7 @@
       <c r="AE51" s="7"/>
       <c r="AF51" s="7"/>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" s="36"/>
       <c r="F52" s="2"/>
       <c r="J52" s="2"/>
@@ -77667,7 +77673,7 @@
       <c r="AE52" s="7"/>
       <c r="AF52" s="7"/>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53" s="36"/>
       <c r="F53" s="2"/>
       <c r="J53" s="2"/>
@@ -77683,7 +77689,7 @@
       <c r="AE53" s="7"/>
       <c r="AF53" s="7"/>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54" s="36"/>
       <c r="F54" s="2"/>
       <c r="J54" s="2"/>
@@ -77699,7 +77705,7 @@
       <c r="AE54" s="7"/>
       <c r="AF54" s="7"/>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55" s="36"/>
       <c r="F55" s="2"/>
       <c r="J55" s="2"/>
@@ -77715,7 +77721,7 @@
       <c r="AE55" s="7"/>
       <c r="AF55" s="7"/>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56" s="36"/>
       <c r="F56" s="2"/>
       <c r="J56" s="2"/>
@@ -77731,7 +77737,7 @@
       <c r="AE56" s="7"/>
       <c r="AF56" s="7"/>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57" s="36"/>
       <c r="F57" s="2"/>
       <c r="J57" s="2"/>
@@ -77747,7 +77753,7 @@
       <c r="AE57" s="7"/>
       <c r="AF57" s="7"/>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58" s="36"/>
       <c r="F58" s="2"/>
       <c r="J58" s="2"/>
@@ -77763,7 +77769,7 @@
       <c r="AE58" s="7"/>
       <c r="AF58" s="7"/>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59" s="36"/>
       <c r="F59" s="2"/>
       <c r="J59" s="2"/>
@@ -77779,7 +77785,7 @@
       <c r="AE59" s="7"/>
       <c r="AF59" s="7"/>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60" s="36"/>
       <c r="F60" s="2"/>
       <c r="J60" s="2"/>
@@ -77795,7 +77801,7 @@
       <c r="AE60" s="7"/>
       <c r="AF60" s="7"/>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" s="36"/>
       <c r="F61" s="2"/>
       <c r="J61" s="2"/>
@@ -77811,7 +77817,7 @@
       <c r="AE61" s="7"/>
       <c r="AF61" s="7"/>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62" s="36"/>
       <c r="F62" s="2"/>
       <c r="J62" s="2"/>
@@ -77827,7 +77833,7 @@
       <c r="AE62" s="7"/>
       <c r="AF62" s="7"/>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63" s="36"/>
       <c r="F63" s="2"/>
       <c r="J63" s="2"/>
@@ -77843,7 +77849,7 @@
       <c r="AE63" s="7"/>
       <c r="AF63" s="7"/>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64" s="36"/>
       <c r="F64" s="2"/>
       <c r="J64" s="2"/>
@@ -77859,7 +77865,7 @@
       <c r="AE64" s="7"/>
       <c r="AF64" s="7"/>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65" s="36"/>
       <c r="F65" s="2"/>
       <c r="J65" s="2"/>
@@ -77875,7 +77881,7 @@
       <c r="AE65" s="7"/>
       <c r="AF65" s="7"/>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A66" s="36"/>
       <c r="F66" s="2"/>
       <c r="J66" s="2"/>
@@ -77891,7 +77897,7 @@
       <c r="AE66" s="7"/>
       <c r="AF66" s="7"/>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A67" s="36"/>
       <c r="F67" s="2"/>
       <c r="J67" s="2"/>
@@ -77907,7 +77913,7 @@
       <c r="AE67" s="7"/>
       <c r="AF67" s="7"/>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A68" s="36"/>
       <c r="F68" s="2"/>
       <c r="J68" s="2"/>
@@ -77923,7 +77929,7 @@
       <c r="AE68" s="7"/>
       <c r="AF68" s="7"/>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69" s="36"/>
       <c r="F69" s="2"/>
       <c r="J69" s="2"/>
@@ -77939,7 +77945,7 @@
       <c r="AE69" s="7"/>
       <c r="AF69" s="7"/>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70" s="36"/>
       <c r="F70" s="2"/>
       <c r="J70" s="2"/>
@@ -77955,7 +77961,7 @@
       <c r="AE70" s="7"/>
       <c r="AF70" s="7"/>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71" s="36"/>
       <c r="F71" s="2"/>
       <c r="J71" s="2"/>
@@ -77971,7 +77977,7 @@
       <c r="AE71" s="7"/>
       <c r="AF71" s="7"/>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A72" s="36"/>
       <c r="F72" s="2"/>
       <c r="J72" s="2"/>
@@ -77987,7 +77993,7 @@
       <c r="AE72" s="7"/>
       <c r="AF72" s="7"/>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A73" s="36"/>
       <c r="F73" s="2"/>
       <c r="J73" s="2"/>
@@ -78003,7 +78009,7 @@
       <c r="AE73" s="7"/>
       <c r="AF73" s="7"/>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A74" s="36"/>
       <c r="F74" s="2"/>
       <c r="J74" s="2"/>
@@ -78019,7 +78025,7 @@
       <c r="AE74" s="7"/>
       <c r="AF74" s="7"/>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A75" s="36"/>
       <c r="F75" s="2"/>
       <c r="J75" s="2"/>
@@ -78035,7 +78041,7 @@
       <c r="AE75" s="7"/>
       <c r="AF75" s="7"/>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A76" s="36"/>
       <c r="F76" s="2"/>
       <c r="J76" s="2"/>
@@ -78051,7 +78057,7 @@
       <c r="AE76" s="7"/>
       <c r="AF76" s="7"/>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A77" s="36"/>
       <c r="F77" s="2"/>
       <c r="J77" s="2"/>
@@ -78067,7 +78073,7 @@
       <c r="AE77" s="7"/>
       <c r="AF77" s="7"/>
     </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A78" s="36"/>
       <c r="F78" s="2"/>
       <c r="J78" s="2"/>
@@ -78083,7 +78089,7 @@
       <c r="AE78" s="7"/>
       <c r="AF78" s="7"/>
     </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A79" s="36"/>
       <c r="F79" s="2"/>
       <c r="J79" s="2"/>
@@ -78099,7 +78105,7 @@
       <c r="AE79" s="7"/>
       <c r="AF79" s="7"/>
     </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A80" s="36"/>
       <c r="F80" s="2"/>
       <c r="J80" s="2"/>
@@ -78115,7 +78121,7 @@
       <c r="AE80" s="7"/>
       <c r="AF80" s="7"/>
     </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A81" s="36"/>
       <c r="F81" s="2"/>
       <c r="J81" s="2"/>
@@ -78131,7 +78137,7 @@
       <c r="AE81" s="7"/>
       <c r="AF81" s="7"/>
     </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A82" s="36"/>
       <c r="F82" s="2"/>
       <c r="J82" s="2"/>
@@ -78147,7 +78153,7 @@
       <c r="AE82" s="7"/>
       <c r="AF82" s="7"/>
     </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A83" s="36"/>
       <c r="F83" s="2"/>
       <c r="J83" s="2"/>
@@ -78163,7 +78169,7 @@
       <c r="AE83" s="7"/>
       <c r="AF83" s="7"/>
     </row>
-    <row r="84" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A84" s="36"/>
       <c r="F84" s="2"/>
       <c r="J84" s="2"/>
@@ -78179,7 +78185,7 @@
       <c r="AE84" s="7"/>
       <c r="AF84" s="7"/>
     </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A85" s="36"/>
       <c r="F85" s="2"/>
       <c r="J85" s="2"/>
@@ -78195,7 +78201,7 @@
       <c r="AE85" s="7"/>
       <c r="AF85" s="7"/>
     </row>
-    <row r="86" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A86" s="36"/>
       <c r="F86" s="2"/>
       <c r="J86" s="2"/>
@@ -78211,7 +78217,7 @@
       <c r="AE86" s="7"/>
       <c r="AF86" s="7"/>
     </row>
-    <row r="87" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A87" s="36"/>
       <c r="F87" s="2"/>
       <c r="J87" s="2"/>
@@ -78227,7 +78233,7 @@
       <c r="AE87" s="7"/>
       <c r="AF87" s="7"/>
     </row>
-    <row r="88" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A88" s="36"/>
       <c r="F88" s="2"/>
       <c r="J88" s="2"/>
@@ -78243,7 +78249,7 @@
       <c r="AE88" s="7"/>
       <c r="AF88" s="7"/>
     </row>
-    <row r="89" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A89" s="36"/>
       <c r="F89" s="2"/>
       <c r="J89" s="2"/>
@@ -78259,7 +78265,7 @@
       <c r="AE89" s="7"/>
       <c r="AF89" s="7"/>
     </row>
-    <row r="90" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A90" s="36"/>
       <c r="F90" s="2"/>
       <c r="J90" s="2"/>
@@ -78275,7 +78281,7 @@
       <c r="AE90" s="7"/>
       <c r="AF90" s="7"/>
     </row>
-    <row r="91" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A91" s="36"/>
       <c r="F91" s="2"/>
       <c r="J91" s="2"/>
@@ -78291,7 +78297,7 @@
       <c r="AE91" s="7"/>
       <c r="AF91" s="7"/>
     </row>
-    <row r="92" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A92" s="36"/>
       <c r="F92" s="2"/>
       <c r="J92" s="2"/>
@@ -78307,7 +78313,7 @@
       <c r="AE92" s="7"/>
       <c r="AF92" s="7"/>
     </row>
-    <row r="93" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A93" s="36"/>
       <c r="F93" s="2"/>
       <c r="J93" s="2"/>
@@ -78323,7 +78329,7 @@
       <c r="AE93" s="7"/>
       <c r="AF93" s="7"/>
     </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A94" s="36"/>
       <c r="F94" s="2"/>
       <c r="J94" s="2"/>
@@ -78339,7 +78345,7 @@
       <c r="AE94" s="7"/>
       <c r="AF94" s="7"/>
     </row>
-    <row r="95" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A95" s="36"/>
       <c r="F95" s="2"/>
       <c r="J95" s="2"/>
@@ -78355,7 +78361,7 @@
       <c r="AE95" s="7"/>
       <c r="AF95" s="7"/>
     </row>
-    <row r="96" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A96" s="36"/>
       <c r="F96" s="2"/>
       <c r="J96" s="2"/>
@@ -78371,7 +78377,7 @@
       <c r="AE96" s="7"/>
       <c r="AF96" s="7"/>
     </row>
-    <row r="97" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A97" s="36"/>
       <c r="F97" s="2"/>
       <c r="J97" s="2"/>
@@ -78387,7 +78393,7 @@
       <c r="AE97" s="7"/>
       <c r="AF97" s="7"/>
     </row>
-    <row r="98" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A98" s="36"/>
       <c r="F98" s="2"/>
       <c r="J98" s="2"/>
@@ -78403,7 +78409,7 @@
       <c r="AE98" s="7"/>
       <c r="AF98" s="7"/>
     </row>
-    <row r="99" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A99" s="36"/>
       <c r="F99" s="2"/>
       <c r="J99" s="2"/>
@@ -78419,7 +78425,7 @@
       <c r="AE99" s="7"/>
       <c r="AF99" s="7"/>
     </row>
-    <row r="100" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A100" s="36"/>
       <c r="F100" s="2"/>
       <c r="J100" s="2"/>
@@ -78435,7 +78441,7 @@
       <c r="AE100" s="7"/>
       <c r="AF100" s="7"/>
     </row>
-    <row r="101" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A101" s="36"/>
       <c r="F101" s="2"/>
       <c r="J101" s="2"/>
@@ -78451,7 +78457,7 @@
       <c r="AE101" s="7"/>
       <c r="AF101" s="7"/>
     </row>
-    <row r="102" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A102" s="36"/>
       <c r="F102" s="2"/>
       <c r="J102" s="2"/>
@@ -78467,7 +78473,7 @@
       <c r="AE102" s="7"/>
       <c r="AF102" s="7"/>
     </row>
-    <row r="103" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A103" s="36"/>
       <c r="F103" s="2"/>
       <c r="J103" s="2"/>
@@ -78483,7 +78489,7 @@
       <c r="AE103" s="7"/>
       <c r="AF103" s="7"/>
     </row>
-    <row r="104" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A104" s="36"/>
       <c r="F104" s="2"/>
       <c r="J104" s="2"/>
@@ -78499,7 +78505,7 @@
       <c r="AE104" s="7"/>
       <c r="AF104" s="7"/>
     </row>
-    <row r="105" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A105" s="36"/>
       <c r="F105" s="2"/>
       <c r="J105" s="2"/>
@@ -78515,7 +78521,7 @@
       <c r="AE105" s="7"/>
       <c r="AF105" s="7"/>
     </row>
-    <row r="106" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A106" s="36"/>
       <c r="F106" s="2"/>
       <c r="J106" s="2"/>
@@ -78531,7 +78537,7 @@
       <c r="AE106" s="7"/>
       <c r="AF106" s="7"/>
     </row>
-    <row r="107" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A107" s="36"/>
       <c r="F107" s="2"/>
       <c r="J107" s="2"/>
@@ -78547,7 +78553,7 @@
       <c r="AE107" s="7"/>
       <c r="AF107" s="7"/>
     </row>
-    <row r="108" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A108" s="36"/>
       <c r="F108" s="2"/>
       <c r="J108" s="2"/>
@@ -78563,7 +78569,7 @@
       <c r="AE108" s="7"/>
       <c r="AF108" s="7"/>
     </row>
-    <row r="109" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A109" s="36"/>
       <c r="F109" s="2"/>
       <c r="J109" s="2"/>
@@ -78579,7 +78585,7 @@
       <c r="AE109" s="7"/>
       <c r="AF109" s="7"/>
     </row>
-    <row r="110" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A110" s="36"/>
       <c r="F110" s="2"/>
       <c r="J110" s="2"/>
@@ -78595,7 +78601,7 @@
       <c r="AE110" s="7"/>
       <c r="AF110" s="7"/>
     </row>
-    <row r="111" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A111" s="36"/>
       <c r="F111" s="2"/>
       <c r="J111" s="2"/>
@@ -78611,7 +78617,7 @@
       <c r="AE111" s="7"/>
       <c r="AF111" s="7"/>
     </row>
-    <row r="112" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A112" s="36"/>
       <c r="F112" s="2"/>
       <c r="J112" s="2"/>
@@ -78627,7 +78633,7 @@
       <c r="AE112" s="7"/>
       <c r="AF112" s="7"/>
     </row>
-    <row r="113" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A113" s="36"/>
       <c r="F113" s="2"/>
       <c r="J113" s="2"/>
@@ -78643,7 +78649,7 @@
       <c r="AE113" s="7"/>
       <c r="AF113" s="7"/>
     </row>
-    <row r="114" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A114" s="36"/>
       <c r="F114" s="2"/>
       <c r="J114" s="2"/>
@@ -78659,7 +78665,7 @@
       <c r="AE114" s="7"/>
       <c r="AF114" s="7"/>
     </row>
-    <row r="115" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A115" s="36"/>
       <c r="F115" s="2"/>
       <c r="J115" s="2"/>
@@ -78675,7 +78681,7 @@
       <c r="AE115" s="7"/>
       <c r="AF115" s="7"/>
     </row>
-    <row r="116" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A116" s="36"/>
       <c r="F116" s="2"/>
       <c r="J116" s="2"/>
@@ -78691,7 +78697,7 @@
       <c r="AE116" s="7"/>
       <c r="AF116" s="7"/>
     </row>
-    <row r="117" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A117" s="36"/>
       <c r="F117" s="2"/>
       <c r="J117" s="2"/>
@@ -78707,7 +78713,7 @@
       <c r="AE117" s="7"/>
       <c r="AF117" s="7"/>
     </row>
-    <row r="118" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A118" s="36"/>
       <c r="F118" s="2"/>
       <c r="J118" s="2"/>
@@ -78723,7 +78729,7 @@
       <c r="AE118" s="7"/>
       <c r="AF118" s="7"/>
     </row>
-    <row r="119" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A119" s="36"/>
       <c r="F119" s="2"/>
       <c r="J119" s="2"/>
@@ -78739,7 +78745,7 @@
       <c r="AE119" s="7"/>
       <c r="AF119" s="7"/>
     </row>
-    <row r="120" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A120" s="36"/>
       <c r="F120" s="2"/>
       <c r="J120" s="2"/>
@@ -78755,7 +78761,7 @@
       <c r="AE120" s="7"/>
       <c r="AF120" s="7"/>
     </row>
-    <row r="121" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A121" s="36"/>
       <c r="F121" s="2"/>
       <c r="J121" s="2"/>
@@ -78787,24 +78793,24 @@
       <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="10.5" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" customWidth="1"/>
-    <col min="13" max="13" width="10.1640625" customWidth="1"/>
-    <col min="15" max="16" width="10.1640625" customWidth="1"/>
-    <col min="18" max="18" width="9.83203125" customWidth="1"/>
-    <col min="19" max="19" width="10.5" customWidth="1"/>
-    <col min="21" max="21" width="10.33203125" customWidth="1"/>
-    <col min="22" max="22" width="10.6640625" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" customWidth="1"/>
+    <col min="15" max="16" width="10.140625" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" customWidth="1"/>
+    <col min="21" max="21" width="10.28515625" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" customWidth="1"/>
     <col min="24" max="24" width="10" customWidth="1"/>
-    <col min="27" max="27" width="9.6640625" customWidth="1"/>
-    <col min="29" max="29" width="9.83203125" customWidth="1"/>
-    <col min="30" max="30" width="11.33203125" customWidth="1"/>
+    <col min="27" max="27" width="9.7109375" customWidth="1"/>
+    <col min="29" max="29" width="9.85546875" customWidth="1"/>
+    <col min="30" max="30" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>9</v>
       </c>
@@ -78903,7 +78909,7 @@
       </c>
       <c r="AH1" s="10"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="36">
         <v>45203</v>
       </c>
@@ -79004,7 +79010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="36">
         <v>45203</v>
       </c>
@@ -79105,7 +79111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="36">
         <v>45203</v>
       </c>
@@ -79206,7 +79212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="36">
         <v>45203</v>
       </c>
@@ -79307,7 +79313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="36">
         <v>45203</v>
       </c>
@@ -79408,7 +79414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="36">
         <v>45203</v>
       </c>
@@ -79509,7 +79515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="36">
         <v>45203</v>
       </c>
@@ -79613,7 +79619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="36">
         <v>45203</v>
       </c>
@@ -79714,7 +79720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="36">
         <v>45203</v>
       </c>
@@ -79815,7 +79821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="36">
         <v>45203</v>
       </c>
@@ -79908,7 +79914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="36">
         <v>45203</v>
       </c>
@@ -80009,7 +80015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="36">
         <v>45203</v>
       </c>
@@ -80110,7 +80116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="36">
         <v>45203</v>
       </c>
@@ -80211,7 +80217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="36">
         <v>45203</v>
       </c>
@@ -80312,7 +80318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="36">
         <v>45203</v>
       </c>
@@ -80413,7 +80419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="36">
         <v>45203</v>
       </c>
@@ -80514,7 +80520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="36">
         <v>45203</v>
       </c>
@@ -80615,7 +80621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="36">
         <v>45203</v>
       </c>
@@ -80708,7 +80714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="36">
         <v>45203</v>
       </c>
@@ -80809,7 +80815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="36">
         <v>45203</v>
       </c>
@@ -80910,7 +80916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="36">
         <v>45203</v>
       </c>
@@ -81011,7 +81017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="36">
         <v>45203</v>
       </c>
@@ -81112,7 +81118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="36">
         <v>45203</v>
       </c>
@@ -81213,7 +81219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="36">
         <v>45203</v>
       </c>
@@ -81293,7 +81299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="36">
         <v>45203</v>
       </c>
@@ -81394,7 +81400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="36">
         <v>45203</v>
       </c>
@@ -81495,7 +81501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="36">
         <v>45203</v>
       </c>
@@ -81596,7 +81602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="36">
         <v>45203</v>
       </c>
@@ -81697,7 +81703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="36">
         <v>45203</v>
       </c>
@@ -81798,7 +81804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="36">
         <v>45203</v>
       </c>
@@ -81899,7 +81905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="36">
         <v>45203</v>
       </c>
@@ -81992,7 +81998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="36">
         <v>45203</v>
       </c>
@@ -82093,7 +82099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="36">
         <v>45203</v>
       </c>
@@ -82194,7 +82200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="36">
         <v>45203</v>
       </c>
@@ -82287,7 +82293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="36">
         <v>45203</v>
       </c>
@@ -82386,7 +82392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="36">
         <v>45203</v>
       </c>
@@ -82487,7 +82493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="36">
         <v>45203</v>
       </c>
@@ -82580,7 +82586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" s="36">
         <v>45203</v>
       </c>
@@ -82681,7 +82687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="36">
         <v>45203</v>
       </c>
@@ -82782,7 +82788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" s="36">
         <v>45203</v>
       </c>
